--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF39BB6-A18D-45A9-8330-8DCD09624063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C580D1-0472-48D0-96F4-73843614BC1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{4F6A86D5-987A-4ED8-8CCF-EEF55F034D10}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9078" uniqueCount="3177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9077" uniqueCount="3177">
   <si>
     <t xml:space="preserve"> STT </t>
   </si>
@@ -9005,9 +9005,6 @@
     <t xml:space="preserve"> Theo QĐ số 2779/QĐ-NHNo-CNTT. Cán bộ được cấp mới mã người dùng, sau khi nhận bàn giao mã người dùng, mật khẩu cần thực hiện  Câu trả lời đúng:  Lập phiếu xác nhận mã người dùng theo mẫu CSUS/07 - Bản xác nhận về việc tiếp nhận mã người dùng và mật khẩu truy cập vào IPCAS </t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t xml:space="preserve"> Theo QĐ số 2779/QĐ-NHNo-CNTT. Một cán bộ được cấp bao nhiêu mã người dùng trên một mã cân đối của phần mềm IPCAS  Câu trả lời đúng: 1</t>
   </si>
   <si>
@@ -9570,6 +9567,9 @@
   </si>
   <si>
     <t>Một chương trình đào tạo chuyển đổi số (tự nguyện) chỉ có 20% cán bộ tham gia. Bạn sẽ để xuất điều gì? Câu trả lời đúng: Đa dạng hình thức học tập, lồng ghép KPI đánh giá</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Theo QĐ số 2779/QĐ-NHNo-CNTT. Để đảm bảo an toàn bảo mật user, cán bộ trước khi nghỉ phép, được cử đi tập huấn, đi học, đi họp cần thực hiện  Câu trả lời đúng:  Lập đề nghị thu hồi tạm thời mã người dùng được cấp theo mẫu CSUS/08 - Phiếu yêu cầu về việc thu hồi mã người dùng </t>
   </si>
 </sst>
 </file>
@@ -9924,8 +9924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A23ADEAA-C05D-4470-AD31-0C7F4A12159B}">
   <dimension ref="A1:M401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A277" workbookViewId="0">
-      <selection activeCell="F291" sqref="F291"/>
+    <sheetView tabSelected="1" topLeftCell="B205" workbookViewId="0">
+      <selection activeCell="G213" sqref="G213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -18701,19 +18701,19 @@
         <v>1585</v>
       </c>
       <c r="B210" t="s">
-        <v>12</v>
+        <v>1586</v>
       </c>
       <c r="C210" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="D210" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="E210" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="F210" t="s">
-        <v>2988</v>
+        <v>3176</v>
       </c>
       <c r="G210">
         <v>1</v>
@@ -18755,7 +18755,7 @@
         <v>12</v>
       </c>
       <c r="F211" t="s">
-        <v>2989</v>
+        <v>2988</v>
       </c>
       <c r="G211" t="s">
         <v>1592</v>
@@ -18797,7 +18797,7 @@
         <v>12</v>
       </c>
       <c r="F212" t="s">
-        <v>2990</v>
+        <v>2989</v>
       </c>
       <c r="G212" t="s">
         <v>1598</v>
@@ -18839,7 +18839,7 @@
         <v>1606</v>
       </c>
       <c r="F213" t="s">
-        <v>2991</v>
+        <v>2990</v>
       </c>
       <c r="G213" t="s">
         <v>1537</v>
@@ -18881,7 +18881,7 @@
         <v>1610</v>
       </c>
       <c r="F214" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="G214" t="s">
         <v>1611</v>
@@ -18923,7 +18923,7 @@
         <v>1616</v>
       </c>
       <c r="F215" t="s">
-        <v>2993</v>
+        <v>2992</v>
       </c>
       <c r="G215" t="s">
         <v>1617</v>
@@ -18965,7 +18965,7 @@
         <v>1626</v>
       </c>
       <c r="F216" t="s">
-        <v>2994</v>
+        <v>2993</v>
       </c>
       <c r="G216" t="s">
         <v>1617</v>
@@ -19007,7 +19007,7 @@
         <v>1635</v>
       </c>
       <c r="F217" t="s">
-        <v>2995</v>
+        <v>2994</v>
       </c>
       <c r="G217" t="s">
         <v>1562</v>
@@ -19049,7 +19049,7 @@
         <v>1644</v>
       </c>
       <c r="F218" t="s">
-        <v>2996</v>
+        <v>2995</v>
       </c>
       <c r="G218" t="s">
         <v>1645</v>
@@ -19091,7 +19091,7 @@
         <v>1654</v>
       </c>
       <c r="F219" t="s">
-        <v>2997</v>
+        <v>2996</v>
       </c>
       <c r="G219" t="s">
         <v>1562</v>
@@ -19133,7 +19133,7 @@
         <v>1664</v>
       </c>
       <c r="F220" t="s">
-        <v>2998</v>
+        <v>2997</v>
       </c>
       <c r="G220" t="s">
         <v>1468</v>
@@ -19175,7 +19175,7 @@
         <v>1674</v>
       </c>
       <c r="F221" t="s">
-        <v>2999</v>
+        <v>2998</v>
       </c>
       <c r="G221" t="s">
         <v>1468</v>
@@ -19217,7 +19217,7 @@
         <v>804</v>
       </c>
       <c r="F222" t="s">
-        <v>3000</v>
+        <v>2999</v>
       </c>
       <c r="G222" t="s">
         <v>1683</v>
@@ -19259,7 +19259,7 @@
         <v>1691</v>
       </c>
       <c r="F223" t="s">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="G223" t="s">
         <v>1692</v>
@@ -19301,7 +19301,7 @@
         <v>804</v>
       </c>
       <c r="F224" t="s">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="G224" t="s">
         <v>1683</v>
@@ -19343,7 +19343,7 @@
         <v>1701</v>
       </c>
       <c r="F225" t="s">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="G225" t="s">
         <v>1692</v>
@@ -19385,7 +19385,7 @@
         <v>1707</v>
       </c>
       <c r="F226" t="s">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="G226" t="s">
         <v>1468</v>
@@ -19427,7 +19427,7 @@
         <v>1712</v>
       </c>
       <c r="F227" t="s">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="G227" t="s">
         <v>1468</v>
@@ -19469,7 +19469,7 @@
         <v>1717</v>
       </c>
       <c r="F228" t="s">
-        <v>3006</v>
+        <v>3005</v>
       </c>
       <c r="G228" t="s">
         <v>1468</v>
@@ -19511,7 +19511,7 @@
         <v>1722</v>
       </c>
       <c r="F229" t="s">
-        <v>3007</v>
+        <v>3006</v>
       </c>
       <c r="G229" t="s">
         <v>1468</v>
@@ -19553,7 +19553,7 @@
         <v>1728</v>
       </c>
       <c r="F230" t="s">
-        <v>3008</v>
+        <v>3007</v>
       </c>
       <c r="G230" t="s">
         <v>1729</v>
@@ -19595,7 +19595,7 @@
         <v>1734</v>
       </c>
       <c r="F231" t="s">
-        <v>3009</v>
+        <v>3008</v>
       </c>
       <c r="G231" t="s">
         <v>1729</v>
@@ -19637,7 +19637,7 @@
         <v>1740</v>
       </c>
       <c r="F232" t="s">
-        <v>3010</v>
+        <v>3009</v>
       </c>
       <c r="G232" t="s">
         <v>1468</v>
@@ -19679,7 +19679,7 @@
         <v>1746</v>
       </c>
       <c r="F233" t="s">
-        <v>3011</v>
+        <v>3010</v>
       </c>
       <c r="G233" t="s">
         <v>1468</v>
@@ -19721,7 +19721,7 @@
         <v>12</v>
       </c>
       <c r="F234" t="s">
-        <v>3012</v>
+        <v>3011</v>
       </c>
       <c r="G234" t="s">
         <v>1468</v>
@@ -19763,7 +19763,7 @@
         <v>1756</v>
       </c>
       <c r="F235" t="s">
-        <v>3013</v>
+        <v>3012</v>
       </c>
       <c r="G235" t="s">
         <v>1468</v>
@@ -19805,7 +19805,7 @@
         <v>1763</v>
       </c>
       <c r="F236" t="s">
-        <v>3014</v>
+        <v>3013</v>
       </c>
       <c r="G236" t="s">
         <v>1468</v>
@@ -19847,7 +19847,7 @@
         <v>1769</v>
       </c>
       <c r="F237" t="s">
-        <v>3015</v>
+        <v>3014</v>
       </c>
       <c r="G237" t="s">
         <v>1468</v>
@@ -19889,7 +19889,7 @@
         <v>1776</v>
       </c>
       <c r="F238" t="s">
-        <v>3016</v>
+        <v>3015</v>
       </c>
       <c r="G238" t="s">
         <v>1777</v>
@@ -19931,7 +19931,7 @@
         <v>1783</v>
       </c>
       <c r="F239" t="s">
-        <v>3017</v>
+        <v>3016</v>
       </c>
       <c r="G239" t="s">
         <v>1784</v>
@@ -19973,7 +19973,7 @@
         <v>1793</v>
       </c>
       <c r="F240" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="G240" t="s">
         <v>1468</v>
@@ -20015,7 +20015,7 @@
         <v>804</v>
       </c>
       <c r="F241" t="s">
-        <v>3019</v>
+        <v>3018</v>
       </c>
       <c r="G241" t="s">
         <v>1799</v>
@@ -20057,7 +20057,7 @@
         <v>804</v>
       </c>
       <c r="F242" t="s">
-        <v>3020</v>
+        <v>3019</v>
       </c>
       <c r="G242" t="s">
         <v>1805</v>
@@ -20099,7 +20099,7 @@
         <v>804</v>
       </c>
       <c r="F243" t="s">
-        <v>3021</v>
+        <v>3020</v>
       </c>
       <c r="G243" t="s">
         <v>1811</v>
@@ -20141,7 +20141,7 @@
         <v>1817</v>
       </c>
       <c r="F244" t="s">
-        <v>3022</v>
+        <v>3021</v>
       </c>
       <c r="G244" t="s">
         <v>1818</v>
@@ -20183,7 +20183,7 @@
         <v>1824</v>
       </c>
       <c r="F245" t="s">
-        <v>3023</v>
+        <v>3022</v>
       </c>
       <c r="G245" t="s">
         <v>1468</v>
@@ -20225,7 +20225,7 @@
         <v>1829</v>
       </c>
       <c r="F246" t="s">
-        <v>3024</v>
+        <v>3023</v>
       </c>
       <c r="G246" t="s">
         <v>1468</v>
@@ -20267,7 +20267,7 @@
         <v>12</v>
       </c>
       <c r="F247" t="s">
-        <v>3025</v>
+        <v>3024</v>
       </c>
       <c r="G247" t="s">
         <v>1468</v>
@@ -20309,7 +20309,7 @@
         <v>1837</v>
       </c>
       <c r="F248" t="s">
-        <v>3026</v>
+        <v>3025</v>
       </c>
       <c r="G248" t="s">
         <v>1468</v>
@@ -20351,7 +20351,7 @@
         <v>12</v>
       </c>
       <c r="F249" t="s">
-        <v>3027</v>
+        <v>3026</v>
       </c>
       <c r="G249" t="s">
         <v>1468</v>
@@ -20393,7 +20393,7 @@
         <v>1845</v>
       </c>
       <c r="F250" t="s">
-        <v>3028</v>
+        <v>3027</v>
       </c>
       <c r="G250" t="s">
         <v>1468</v>
@@ -20435,7 +20435,7 @@
         <v>1850</v>
       </c>
       <c r="F251" t="s">
-        <v>3029</v>
+        <v>3028</v>
       </c>
       <c r="G251" t="s">
         <v>1468</v>
@@ -20477,7 +20477,7 @@
         <v>1854</v>
       </c>
       <c r="F252" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
       <c r="G252" t="s">
         <v>1468</v>
@@ -20519,7 +20519,7 @@
         <v>1859</v>
       </c>
       <c r="F253" t="s">
-        <v>3031</v>
+        <v>3030</v>
       </c>
       <c r="G253" t="s">
         <v>1468</v>
@@ -20561,7 +20561,7 @@
         <v>1864</v>
       </c>
       <c r="F254" t="s">
-        <v>3032</v>
+        <v>3031</v>
       </c>
       <c r="G254" t="s">
         <v>1468</v>
@@ -20603,7 +20603,7 @@
         <v>1868</v>
       </c>
       <c r="F255" t="s">
-        <v>3033</v>
+        <v>3032</v>
       </c>
       <c r="G255" t="s">
         <v>1468</v>
@@ -20645,7 +20645,7 @@
         <v>12</v>
       </c>
       <c r="F256" t="s">
-        <v>3034</v>
+        <v>3033</v>
       </c>
       <c r="G256" t="s">
         <v>1468</v>
@@ -20687,7 +20687,7 @@
         <v>1879</v>
       </c>
       <c r="F257" t="s">
-        <v>3035</v>
+        <v>3034</v>
       </c>
       <c r="G257" t="s">
         <v>1468</v>
@@ -20729,7 +20729,7 @@
         <v>1884</v>
       </c>
       <c r="F258" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="G258" t="s">
         <v>1468</v>
@@ -20771,7 +20771,7 @@
         <v>1889</v>
       </c>
       <c r="F259" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="G259" t="s">
         <v>1468</v>
@@ -20813,7 +20813,7 @@
         <v>1894</v>
       </c>
       <c r="F260" t="s">
-        <v>3038</v>
+        <v>3037</v>
       </c>
       <c r="G260" t="s">
         <v>1895</v>
@@ -20855,7 +20855,7 @@
         <v>1894</v>
       </c>
       <c r="F261" t="s">
-        <v>3039</v>
+        <v>3038</v>
       </c>
       <c r="G261" t="s">
         <v>1900</v>
@@ -20897,7 +20897,7 @@
         <v>1906</v>
       </c>
       <c r="F262" t="s">
-        <v>3040</v>
+        <v>3039</v>
       </c>
       <c r="G262" t="s">
         <v>1907</v>
@@ -20939,7 +20939,7 @@
         <v>1913</v>
       </c>
       <c r="F263" t="s">
-        <v>3041</v>
+        <v>3040</v>
       </c>
       <c r="G263" t="s">
         <v>1914</v>
@@ -20981,7 +20981,7 @@
         <v>1921</v>
       </c>
       <c r="F264" t="s">
-        <v>3042</v>
+        <v>3041</v>
       </c>
       <c r="G264" t="s">
         <v>1922</v>
@@ -21023,7 +21023,7 @@
         <v>823</v>
       </c>
       <c r="F265" t="s">
-        <v>3043</v>
+        <v>3042</v>
       </c>
       <c r="G265" t="s">
         <v>1468</v>
@@ -21065,7 +21065,7 @@
         <v>1931</v>
       </c>
       <c r="F266" t="s">
-        <v>3044</v>
+        <v>3043</v>
       </c>
       <c r="G266" t="s">
         <v>1932</v>
@@ -21107,7 +21107,7 @@
         <v>1937</v>
       </c>
       <c r="F267" t="s">
-        <v>3045</v>
+        <v>3044</v>
       </c>
       <c r="G267" t="s">
         <v>1938</v>
@@ -21149,7 +21149,7 @@
         <v>1948</v>
       </c>
       <c r="F268" t="s">
-        <v>3046</v>
+        <v>3045</v>
       </c>
       <c r="G268" t="s">
         <v>1949</v>
@@ -21191,7 +21191,7 @@
         <v>1954</v>
       </c>
       <c r="F269" t="s">
-        <v>3047</v>
+        <v>3046</v>
       </c>
       <c r="G269" t="s">
         <v>1468</v>
@@ -21233,7 +21233,7 @@
         <v>12</v>
       </c>
       <c r="F270" t="s">
-        <v>3048</v>
+        <v>3047</v>
       </c>
       <c r="G270" t="s">
         <v>1468</v>
@@ -21275,7 +21275,7 @@
         <v>1961</v>
       </c>
       <c r="F271" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="G271" t="s">
         <v>1468</v>
@@ -21317,7 +21317,7 @@
         <v>1967</v>
       </c>
       <c r="F272" t="s">
-        <v>3050</v>
+        <v>3049</v>
       </c>
       <c r="G272" t="s">
         <v>1468</v>
@@ -21359,7 +21359,7 @@
         <v>1973</v>
       </c>
       <c r="F273" t="s">
-        <v>3051</v>
+        <v>3050</v>
       </c>
       <c r="G273" t="s">
         <v>1468</v>
@@ -21401,7 +21401,7 @@
         <v>1978</v>
       </c>
       <c r="F274" t="s">
-        <v>3052</v>
+        <v>3051</v>
       </c>
       <c r="G274" t="s">
         <v>1468</v>
@@ -21443,7 +21443,7 @@
         <v>1984</v>
       </c>
       <c r="F275" t="s">
-        <v>3053</v>
+        <v>3052</v>
       </c>
       <c r="G275" t="s">
         <v>1468</v>
@@ -21485,7 +21485,7 @@
         <v>1990</v>
       </c>
       <c r="F276" t="s">
-        <v>3054</v>
+        <v>3053</v>
       </c>
       <c r="G276" t="s">
         <v>1468</v>
@@ -21527,7 +21527,7 @@
         <v>1996</v>
       </c>
       <c r="F277" t="s">
-        <v>3055</v>
+        <v>3054</v>
       </c>
       <c r="G277" t="s">
         <v>1468</v>
@@ -21569,7 +21569,7 @@
         <v>2002</v>
       </c>
       <c r="F278" t="s">
-        <v>3056</v>
+        <v>3055</v>
       </c>
       <c r="G278" t="s">
         <v>1468</v>
@@ -21611,7 +21611,7 @@
         <v>2008</v>
       </c>
       <c r="F279" t="s">
-        <v>3057</v>
+        <v>3056</v>
       </c>
       <c r="G279" t="s">
         <v>1468</v>
@@ -21653,7 +21653,7 @@
         <v>2015</v>
       </c>
       <c r="F280" t="s">
-        <v>3058</v>
+        <v>3057</v>
       </c>
       <c r="G280" t="s">
         <v>1468</v>
@@ -21695,7 +21695,7 @@
         <v>2021</v>
       </c>
       <c r="F281" t="s">
-        <v>3059</v>
+        <v>3058</v>
       </c>
       <c r="G281" t="s">
         <v>1468</v>
@@ -21737,7 +21737,7 @@
         <v>2027</v>
       </c>
       <c r="F282" t="s">
-        <v>3060</v>
+        <v>3059</v>
       </c>
       <c r="G282" t="s">
         <v>1468</v>
@@ -21779,7 +21779,7 @@
         <v>2033</v>
       </c>
       <c r="F283" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="G283" t="s">
         <v>1468</v>
@@ -21821,7 +21821,7 @@
         <v>823</v>
       </c>
       <c r="F284" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
       <c r="G284" t="s">
         <v>1468</v>
@@ -21863,7 +21863,7 @@
         <v>1852</v>
       </c>
       <c r="F285" t="s">
-        <v>3063</v>
+        <v>3062</v>
       </c>
       <c r="G285" t="s">
         <v>1468</v>
@@ -21905,7 +21905,7 @@
         <v>804</v>
       </c>
       <c r="F286" t="s">
-        <v>3064</v>
+        <v>3063</v>
       </c>
       <c r="G286" t="s">
         <v>1468</v>
@@ -21947,7 +21947,7 @@
         <v>2046</v>
       </c>
       <c r="F287" t="s">
-        <v>3065</v>
+        <v>3064</v>
       </c>
       <c r="G287" t="s">
         <v>1468</v>
@@ -21989,7 +21989,7 @@
         <v>2052</v>
       </c>
       <c r="F288" t="s">
-        <v>3066</v>
+        <v>3065</v>
       </c>
       <c r="G288" t="s">
         <v>1468</v>
@@ -22031,7 +22031,7 @@
         <v>2057</v>
       </c>
       <c r="F289" t="s">
-        <v>3067</v>
+        <v>3066</v>
       </c>
       <c r="G289" t="s">
         <v>2058</v>
@@ -22073,7 +22073,7 @@
         <v>715</v>
       </c>
       <c r="F290" t="s">
-        <v>3068</v>
+        <v>3067</v>
       </c>
       <c r="G290" t="s">
         <v>2060</v>
@@ -22115,7 +22115,7 @@
         <v>2066</v>
       </c>
       <c r="F291" t="s">
-        <v>3069</v>
+        <v>3068</v>
       </c>
       <c r="G291" t="s">
         <v>2067</v>
@@ -22157,7 +22157,7 @@
         <v>2073</v>
       </c>
       <c r="F292" t="s">
-        <v>3070</v>
+        <v>3069</v>
       </c>
       <c r="G292" t="s">
         <v>2074</v>
@@ -22199,7 +22199,7 @@
         <v>2083</v>
       </c>
       <c r="F293" t="s">
-        <v>3071</v>
+        <v>3070</v>
       </c>
       <c r="G293" t="s">
         <v>2084</v>
@@ -22241,7 +22241,7 @@
         <v>12</v>
       </c>
       <c r="F294" t="s">
-        <v>3072</v>
+        <v>3071</v>
       </c>
       <c r="G294" t="s">
         <v>2086</v>
@@ -22283,7 +22283,7 @@
         <v>12</v>
       </c>
       <c r="F295" t="s">
-        <v>3073</v>
+        <v>3072</v>
       </c>
       <c r="G295" t="s">
         <v>2092</v>
@@ -22325,7 +22325,7 @@
         <v>12</v>
       </c>
       <c r="F296" t="s">
-        <v>3074</v>
+        <v>3073</v>
       </c>
       <c r="G296" t="s">
         <v>2096</v>
@@ -22367,7 +22367,7 @@
         <v>12</v>
       </c>
       <c r="F297" t="s">
-        <v>3075</v>
+        <v>3074</v>
       </c>
       <c r="G297" t="s">
         <v>2101</v>
@@ -22409,7 +22409,7 @@
         <v>717</v>
       </c>
       <c r="F298" t="s">
-        <v>3076</v>
+        <v>3075</v>
       </c>
       <c r="G298" t="s">
         <v>2060</v>
@@ -22451,7 +22451,7 @@
         <v>12</v>
       </c>
       <c r="F299" t="s">
-        <v>3077</v>
+        <v>3076</v>
       </c>
       <c r="G299" t="s">
         <v>2108</v>
@@ -22493,7 +22493,7 @@
         <v>644</v>
       </c>
       <c r="F300" t="s">
-        <v>3078</v>
+        <v>3077</v>
       </c>
       <c r="G300" t="s">
         <v>2115</v>
@@ -22535,7 +22535,7 @@
         <v>1894</v>
       </c>
       <c r="F301" t="s">
-        <v>3079</v>
+        <v>3078</v>
       </c>
       <c r="G301" t="s">
         <v>2120</v>
@@ -22577,7 +22577,7 @@
         <v>12</v>
       </c>
       <c r="F302" t="s">
-        <v>3080</v>
+        <v>3079</v>
       </c>
       <c r="G302" t="s">
         <v>2122</v>
@@ -22619,7 +22619,7 @@
         <v>12</v>
       </c>
       <c r="F303" t="s">
-        <v>3081</v>
+        <v>3080</v>
       </c>
       <c r="G303" t="s">
         <v>2128</v>
@@ -22661,7 +22661,7 @@
         <v>2134</v>
       </c>
       <c r="F304" t="s">
-        <v>3082</v>
+        <v>3081</v>
       </c>
       <c r="G304" t="s">
         <v>1537</v>
@@ -22703,7 +22703,7 @@
         <v>2139</v>
       </c>
       <c r="F305" t="s">
-        <v>3083</v>
+        <v>3082</v>
       </c>
       <c r="G305" t="s">
         <v>1537</v>
@@ -22745,7 +22745,7 @@
         <v>2145</v>
       </c>
       <c r="F306" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
       <c r="G306" t="s">
         <v>2146</v>
@@ -22787,7 +22787,7 @@
         <v>2152</v>
       </c>
       <c r="F307" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
       <c r="G307" t="s">
         <v>2153</v>
@@ -22829,7 +22829,7 @@
         <v>2159</v>
       </c>
       <c r="F308" t="s">
-        <v>3086</v>
+        <v>3085</v>
       </c>
       <c r="G308" t="s">
         <v>2160</v>
@@ -22871,7 +22871,7 @@
         <v>2167</v>
       </c>
       <c r="F309" t="s">
-        <v>3087</v>
+        <v>3086</v>
       </c>
       <c r="G309" t="s">
         <v>2168</v>
@@ -22913,7 +22913,7 @@
         <v>2175</v>
       </c>
       <c r="F310" t="s">
-        <v>3088</v>
+        <v>3087</v>
       </c>
       <c r="G310" t="s">
         <v>2176</v>
@@ -22955,7 +22955,7 @@
         <v>2182</v>
       </c>
       <c r="F311" t="s">
-        <v>3089</v>
+        <v>3088</v>
       </c>
       <c r="G311" t="s">
         <v>2183</v>
@@ -22997,7 +22997,7 @@
         <v>2190</v>
       </c>
       <c r="F312" t="s">
-        <v>3090</v>
+        <v>3089</v>
       </c>
       <c r="G312" t="s">
         <v>2191</v>
@@ -23039,7 +23039,7 @@
         <v>1691</v>
       </c>
       <c r="F313" t="s">
-        <v>3091</v>
+        <v>3090</v>
       </c>
       <c r="G313" t="s">
         <v>1562</v>
@@ -23081,7 +23081,7 @@
         <v>2205</v>
       </c>
       <c r="F314" t="s">
-        <v>3092</v>
+        <v>3091</v>
       </c>
       <c r="G314" t="s">
         <v>2206</v>
@@ -23123,7 +23123,7 @@
         <v>2215</v>
       </c>
       <c r="F315" t="s">
-        <v>3093</v>
+        <v>3092</v>
       </c>
       <c r="G315" t="s">
         <v>2216</v>
@@ -23165,7 +23165,7 @@
         <v>2215</v>
       </c>
       <c r="F316" t="s">
-        <v>3093</v>
+        <v>3092</v>
       </c>
       <c r="G316" t="s">
         <v>2216</v>
@@ -23207,7 +23207,7 @@
         <v>2222</v>
       </c>
       <c r="F317" t="s">
-        <v>3094</v>
+        <v>3093</v>
       </c>
       <c r="G317" t="s">
         <v>1468</v>
@@ -23249,7 +23249,7 @@
         <v>2228</v>
       </c>
       <c r="F318" t="s">
-        <v>3095</v>
+        <v>3094</v>
       </c>
       <c r="G318" t="s">
         <v>2229</v>
@@ -23291,7 +23291,7 @@
         <v>2235</v>
       </c>
       <c r="F319" t="s">
-        <v>3096</v>
+        <v>3095</v>
       </c>
       <c r="G319" t="s">
         <v>2236</v>
@@ -23333,7 +23333,7 @@
         <v>2245</v>
       </c>
       <c r="F320" t="s">
-        <v>3097</v>
+        <v>3096</v>
       </c>
       <c r="G320" t="s">
         <v>2246</v>
@@ -23375,7 +23375,7 @@
         <v>2255</v>
       </c>
       <c r="F321" t="s">
-        <v>3098</v>
+        <v>3097</v>
       </c>
       <c r="G321" t="s">
         <v>1468</v>
@@ -23417,7 +23417,7 @@
         <v>2260</v>
       </c>
       <c r="F322" t="s">
-        <v>3099</v>
+        <v>3098</v>
       </c>
       <c r="G322" t="s">
         <v>2261</v>
@@ -23459,7 +23459,7 @@
         <v>12</v>
       </c>
       <c r="F323" t="s">
-        <v>3100</v>
+        <v>3099</v>
       </c>
       <c r="G323" t="s">
         <v>2264</v>
@@ -23501,7 +23501,7 @@
         <v>2270</v>
       </c>
       <c r="F324" t="s">
-        <v>3101</v>
+        <v>3100</v>
       </c>
       <c r="G324" t="s">
         <v>2271</v>
@@ -23543,7 +23543,7 @@
         <v>2278</v>
       </c>
       <c r="F325" t="s">
-        <v>3102</v>
+        <v>3101</v>
       </c>
       <c r="G325" t="s">
         <v>1900</v>
@@ -23585,7 +23585,7 @@
         <v>2284</v>
       </c>
       <c r="F326" t="s">
-        <v>3103</v>
+        <v>3102</v>
       </c>
       <c r="G326" t="s">
         <v>1900</v>
@@ -23627,7 +23627,7 @@
         <v>2294</v>
       </c>
       <c r="F327" t="s">
-        <v>3104</v>
+        <v>3103</v>
       </c>
       <c r="G327" t="s">
         <v>2295</v>
@@ -23669,7 +23669,7 @@
         <v>2305</v>
       </c>
       <c r="F328" t="s">
-        <v>3105</v>
+        <v>3104</v>
       </c>
       <c r="G328" t="s">
         <v>2306</v>
@@ -23711,7 +23711,7 @@
         <v>2312</v>
       </c>
       <c r="F329" t="s">
-        <v>3106</v>
+        <v>3105</v>
       </c>
       <c r="G329" t="s">
         <v>2313</v>
@@ -23753,7 +23753,7 @@
         <v>1691</v>
       </c>
       <c r="F330" t="s">
-        <v>3107</v>
+        <v>3106</v>
       </c>
       <c r="G330" t="s">
         <v>2306</v>
@@ -23795,7 +23795,7 @@
         <v>2327</v>
       </c>
       <c r="F331" t="s">
-        <v>3108</v>
+        <v>3107</v>
       </c>
       <c r="G331" t="s">
         <v>1914</v>
@@ -23837,7 +23837,7 @@
         <v>2336</v>
       </c>
       <c r="F332" t="s">
-        <v>3109</v>
+        <v>3108</v>
       </c>
       <c r="G332" t="s">
         <v>1914</v>
@@ -23879,7 +23879,7 @@
         <v>2345</v>
       </c>
       <c r="F333" t="s">
-        <v>3110</v>
+        <v>3109</v>
       </c>
       <c r="G333" t="s">
         <v>2346</v>
@@ -23921,7 +23921,7 @@
         <v>12</v>
       </c>
       <c r="F334" t="s">
-        <v>3111</v>
+        <v>3110</v>
       </c>
       <c r="G334" t="s">
         <v>2355</v>
@@ -23963,7 +23963,7 @@
         <v>2363</v>
       </c>
       <c r="F335" t="s">
-        <v>3112</v>
+        <v>3111</v>
       </c>
       <c r="G335" t="s">
         <v>2364</v>
@@ -24005,7 +24005,7 @@
         <v>2374</v>
       </c>
       <c r="F336" t="s">
-        <v>3113</v>
+        <v>3112</v>
       </c>
       <c r="G336" t="s">
         <v>2375</v>
@@ -24047,7 +24047,7 @@
         <v>1589</v>
       </c>
       <c r="F337" t="s">
-        <v>3114</v>
+        <v>3113</v>
       </c>
       <c r="G337" t="s">
         <v>2380</v>
@@ -24089,7 +24089,7 @@
         <v>12</v>
       </c>
       <c r="F338" t="s">
-        <v>3115</v>
+        <v>3114</v>
       </c>
       <c r="G338" t="s">
         <v>1592</v>
@@ -24131,7 +24131,7 @@
         <v>1581</v>
       </c>
       <c r="F339" t="s">
-        <v>3116</v>
+        <v>3115</v>
       </c>
       <c r="G339" t="s">
         <v>2387</v>
@@ -24173,7 +24173,7 @@
         <v>12</v>
       </c>
       <c r="F340" t="s">
-        <v>3117</v>
+        <v>3116</v>
       </c>
       <c r="G340" t="s">
         <v>1537</v>
@@ -24215,7 +24215,7 @@
         <v>12</v>
       </c>
       <c r="F341" t="s">
-        <v>3118</v>
+        <v>3117</v>
       </c>
       <c r="G341" t="s">
         <v>1468</v>
@@ -24257,7 +24257,7 @@
         <v>2255</v>
       </c>
       <c r="F342" t="s">
-        <v>3098</v>
+        <v>3097</v>
       </c>
       <c r="G342" t="s">
         <v>1468</v>
@@ -24299,7 +24299,7 @@
         <v>12</v>
       </c>
       <c r="F343" t="s">
-        <v>3027</v>
+        <v>3026</v>
       </c>
       <c r="G343" t="s">
         <v>1468</v>
@@ -24341,7 +24341,7 @@
         <v>2401</v>
       </c>
       <c r="F344" t="s">
-        <v>3119</v>
+        <v>3118</v>
       </c>
       <c r="G344" t="s">
         <v>2402</v>
@@ -24383,7 +24383,7 @@
         <v>2404</v>
       </c>
       <c r="F345" t="s">
-        <v>3120</v>
+        <v>3119</v>
       </c>
       <c r="G345" t="s">
         <v>2405</v>
@@ -24425,7 +24425,7 @@
         <v>644</v>
       </c>
       <c r="F346" t="s">
-        <v>3121</v>
+        <v>3120</v>
       </c>
       <c r="G346" t="s">
         <v>2410</v>
@@ -24467,7 +24467,7 @@
         <v>2418</v>
       </c>
       <c r="F347" t="s">
-        <v>3122</v>
+        <v>3121</v>
       </c>
       <c r="G347" t="s">
         <v>2419</v>
@@ -24509,7 +24509,7 @@
         <v>2428</v>
       </c>
       <c r="F348" t="s">
-        <v>3123</v>
+        <v>3122</v>
       </c>
       <c r="G348" t="s">
         <v>2429</v>
@@ -24551,7 +24551,7 @@
         <v>823</v>
       </c>
       <c r="F349" t="s">
-        <v>3124</v>
+        <v>3123</v>
       </c>
       <c r="G349" t="s">
         <v>2436</v>
@@ -24593,7 +24593,7 @@
         <v>1894</v>
       </c>
       <c r="F350" t="s">
-        <v>3125</v>
+        <v>3124</v>
       </c>
       <c r="G350" t="s">
         <v>1468</v>
@@ -24635,7 +24635,7 @@
         <v>2448</v>
       </c>
       <c r="F351" t="s">
-        <v>3126</v>
+        <v>3125</v>
       </c>
       <c r="G351" t="s">
         <v>2449</v>
@@ -24677,7 +24677,7 @@
         <v>2455</v>
       </c>
       <c r="F352" t="s">
-        <v>3127</v>
+        <v>3126</v>
       </c>
       <c r="G352" t="s">
         <v>2449</v>
@@ -24719,7 +24719,7 @@
         <v>2464</v>
       </c>
       <c r="F353" t="s">
-        <v>3128</v>
+        <v>3127</v>
       </c>
       <c r="G353" t="s">
         <v>1468</v>
@@ -24761,7 +24761,7 @@
         <v>2470</v>
       </c>
       <c r="F354" t="s">
-        <v>3129</v>
+        <v>3128</v>
       </c>
       <c r="G354" t="s">
         <v>1468</v>
@@ -24803,7 +24803,7 @@
         <v>15</v>
       </c>
       <c r="F355" t="s">
-        <v>3130</v>
+        <v>3129</v>
       </c>
       <c r="G355" t="s">
         <v>2472</v>
@@ -24845,7 +24845,7 @@
         <v>7</v>
       </c>
       <c r="F356" t="s">
-        <v>3131</v>
+        <v>3130</v>
       </c>
       <c r="G356" t="s">
         <v>2472</v>
@@ -24887,7 +24887,7 @@
         <v>2480</v>
       </c>
       <c r="F357" t="s">
-        <v>3132</v>
+        <v>3131</v>
       </c>
       <c r="G357" t="s">
         <v>2472</v>
@@ -24929,7 +24929,7 @@
         <v>2485</v>
       </c>
       <c r="F358" t="s">
-        <v>3133</v>
+        <v>3132</v>
       </c>
       <c r="G358" t="s">
         <v>2472</v>
@@ -24971,7 +24971,7 @@
         <v>2494</v>
       </c>
       <c r="F359" t="s">
-        <v>3134</v>
+        <v>3133</v>
       </c>
       <c r="G359" t="s">
         <v>2472</v>
@@ -25013,7 +25013,7 @@
         <v>12</v>
       </c>
       <c r="F360" t="s">
-        <v>3135</v>
+        <v>3134</v>
       </c>
       <c r="G360" t="s">
         <v>1468</v>
@@ -25055,7 +25055,7 @@
         <v>2508</v>
       </c>
       <c r="F361" t="s">
-        <v>3136</v>
+        <v>3135</v>
       </c>
       <c r="G361" t="s">
         <v>1468</v>
@@ -25097,7 +25097,7 @@
         <v>2513</v>
       </c>
       <c r="F362" t="s">
-        <v>3137</v>
+        <v>3136</v>
       </c>
       <c r="G362" t="s">
         <v>1468</v>
@@ -25139,7 +25139,7 @@
         <v>2517</v>
       </c>
       <c r="F363" t="s">
-        <v>3138</v>
+        <v>3137</v>
       </c>
       <c r="G363" t="s">
         <v>1468</v>
@@ -25181,7 +25181,7 @@
         <v>2524</v>
       </c>
       <c r="F364" t="s">
-        <v>3139</v>
+        <v>3138</v>
       </c>
       <c r="G364" t="s">
         <v>1468</v>
@@ -25223,7 +25223,7 @@
         <v>2529</v>
       </c>
       <c r="F365" t="s">
-        <v>3140</v>
+        <v>3139</v>
       </c>
       <c r="G365" t="s">
         <v>1468</v>
@@ -25265,7 +25265,7 @@
         <v>2534</v>
       </c>
       <c r="F366" t="s">
-        <v>3141</v>
+        <v>3140</v>
       </c>
       <c r="G366" t="s">
         <v>1468</v>
@@ -25307,7 +25307,7 @@
         <v>2539</v>
       </c>
       <c r="F367" t="s">
-        <v>3142</v>
+        <v>3141</v>
       </c>
       <c r="G367" t="s">
         <v>1468</v>
@@ -25349,7 +25349,7 @@
         <v>2544</v>
       </c>
       <c r="F368" t="s">
-        <v>3143</v>
+        <v>3142</v>
       </c>
       <c r="G368" t="s">
         <v>1468</v>
@@ -25391,7 +25391,7 @@
         <v>2549</v>
       </c>
       <c r="F369" t="s">
-        <v>3144</v>
+        <v>3143</v>
       </c>
       <c r="G369" t="s">
         <v>1468</v>
@@ -25433,7 +25433,7 @@
         <v>2554</v>
       </c>
       <c r="F370" t="s">
-        <v>3145</v>
+        <v>3144</v>
       </c>
       <c r="G370" t="s">
         <v>1468</v>
@@ -25475,7 +25475,7 @@
         <v>2559</v>
       </c>
       <c r="F371" t="s">
-        <v>3146</v>
+        <v>3145</v>
       </c>
       <c r="G371" t="s">
         <v>1468</v>
@@ -25517,7 +25517,7 @@
         <v>12</v>
       </c>
       <c r="F372" t="s">
-        <v>3147</v>
+        <v>3146</v>
       </c>
       <c r="G372" t="s">
         <v>1537</v>
@@ -25559,7 +25559,7 @@
         <v>2572</v>
       </c>
       <c r="F373" t="s">
-        <v>3148</v>
+        <v>3147</v>
       </c>
       <c r="G373" t="s">
         <v>1537</v>
@@ -25601,7 +25601,7 @@
         <v>2582</v>
       </c>
       <c r="F374" t="s">
-        <v>3149</v>
+        <v>3148</v>
       </c>
       <c r="G374" t="s">
         <v>2583</v>
@@ -25643,7 +25643,7 @@
         <v>1581</v>
       </c>
       <c r="F375" t="s">
-        <v>3150</v>
+        <v>3149</v>
       </c>
       <c r="G375" t="s">
         <v>2590</v>
@@ -25685,7 +25685,7 @@
         <v>2596</v>
       </c>
       <c r="F376" t="s">
-        <v>3151</v>
+        <v>3150</v>
       </c>
       <c r="G376" t="s">
         <v>2597</v>
@@ -25727,7 +25727,7 @@
         <v>12</v>
       </c>
       <c r="F377" t="s">
-        <v>3152</v>
+        <v>3151</v>
       </c>
       <c r="G377" t="s">
         <v>2602</v>
@@ -25769,7 +25769,7 @@
         <v>2607</v>
       </c>
       <c r="F378" t="s">
-        <v>3153</v>
+        <v>3152</v>
       </c>
       <c r="G378" t="s">
         <v>2608</v>
@@ -25811,7 +25811,7 @@
         <v>2616</v>
       </c>
       <c r="F379" t="s">
-        <v>3154</v>
+        <v>3153</v>
       </c>
       <c r="G379" t="s">
         <v>2617</v>
@@ -25853,7 +25853,7 @@
         <v>2626</v>
       </c>
       <c r="F380" t="s">
-        <v>3155</v>
+        <v>3154</v>
       </c>
       <c r="G380" t="s">
         <v>1692</v>
@@ -25895,7 +25895,7 @@
         <v>2636</v>
       </c>
       <c r="F381" t="s">
-        <v>3156</v>
+        <v>3155</v>
       </c>
       <c r="G381" t="s">
         <v>2637</v>
@@ -25937,7 +25937,7 @@
         <v>2647</v>
       </c>
       <c r="F382" t="s">
-        <v>3157</v>
+        <v>3156</v>
       </c>
       <c r="G382" t="s">
         <v>2648</v>
@@ -25979,7 +25979,7 @@
         <v>2657</v>
       </c>
       <c r="F383" t="s">
-        <v>3158</v>
+        <v>3157</v>
       </c>
       <c r="G383" t="s">
         <v>2648</v>
@@ -26021,7 +26021,7 @@
         <v>2663</v>
       </c>
       <c r="F384" t="s">
-        <v>3159</v>
+        <v>3158</v>
       </c>
       <c r="G384" t="s">
         <v>2664</v>
@@ -26063,7 +26063,7 @@
         <v>2670</v>
       </c>
       <c r="F385" t="s">
-        <v>3160</v>
+        <v>3159</v>
       </c>
       <c r="G385" t="s">
         <v>2648</v>
@@ -26105,7 +26105,7 @@
         <v>2676</v>
       </c>
       <c r="F386" t="s">
-        <v>3161</v>
+        <v>3160</v>
       </c>
       <c r="G386" t="s">
         <v>2648</v>
@@ -26147,7 +26147,7 @@
         <v>2682</v>
       </c>
       <c r="F387" t="s">
-        <v>3162</v>
+        <v>3161</v>
       </c>
       <c r="G387" t="s">
         <v>2683</v>
@@ -26189,7 +26189,7 @@
         <v>2690</v>
       </c>
       <c r="F388" t="s">
-        <v>3163</v>
+        <v>3162</v>
       </c>
       <c r="G388" t="s">
         <v>2683</v>
@@ -26231,7 +26231,7 @@
         <v>2698</v>
       </c>
       <c r="F389" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="G389" t="s">
         <v>2683</v>
@@ -26273,7 +26273,7 @@
         <v>2704</v>
       </c>
       <c r="F390" t="s">
-        <v>3165</v>
+        <v>3164</v>
       </c>
       <c r="G390" t="s">
         <v>2683</v>
@@ -26315,7 +26315,7 @@
         <v>2711</v>
       </c>
       <c r="F391" t="s">
-        <v>3166</v>
+        <v>3165</v>
       </c>
       <c r="G391" t="s">
         <v>2683</v>
@@ -26357,7 +26357,7 @@
         <v>2717</v>
       </c>
       <c r="F392" t="s">
-        <v>3167</v>
+        <v>3166</v>
       </c>
       <c r="G392" t="s">
         <v>2683</v>
@@ -26399,7 +26399,7 @@
         <v>2723</v>
       </c>
       <c r="F393" t="s">
-        <v>3168</v>
+        <v>3167</v>
       </c>
       <c r="G393" t="s">
         <v>2683</v>
@@ -26441,7 +26441,7 @@
         <v>2729</v>
       </c>
       <c r="F394" t="s">
-        <v>3169</v>
+        <v>3168</v>
       </c>
       <c r="G394" t="s">
         <v>2683</v>
@@ -26483,7 +26483,7 @@
         <v>2736</v>
       </c>
       <c r="F395" t="s">
-        <v>3170</v>
+        <v>3169</v>
       </c>
       <c r="G395" t="s">
         <v>2683</v>
@@ -26525,7 +26525,7 @@
         <v>2743</v>
       </c>
       <c r="F396" t="s">
-        <v>3171</v>
+        <v>3170</v>
       </c>
       <c r="G396" t="s">
         <v>2683</v>
@@ -26567,7 +26567,7 @@
         <v>2750</v>
       </c>
       <c r="F397" t="s">
-        <v>3172</v>
+        <v>3171</v>
       </c>
       <c r="G397" t="s">
         <v>2683</v>
@@ -26609,7 +26609,7 @@
         <v>2757</v>
       </c>
       <c r="F398" t="s">
-        <v>3173</v>
+        <v>3172</v>
       </c>
       <c r="G398" t="s">
         <v>2683</v>
@@ -26651,7 +26651,7 @@
         <v>2764</v>
       </c>
       <c r="F399" t="s">
-        <v>3174</v>
+        <v>3173</v>
       </c>
       <c r="G399" t="s">
         <v>2683</v>
@@ -26693,7 +26693,7 @@
         <v>2771</v>
       </c>
       <c r="F400" t="s">
-        <v>3175</v>
+        <v>3174</v>
       </c>
       <c r="G400" t="s">
         <v>2683</v>
@@ -26735,7 +26735,7 @@
         <v>2777</v>
       </c>
       <c r="F401" t="s">
-        <v>3176</v>
+        <v>3175</v>
       </c>
       <c r="G401" t="s">
         <v>2683</v>
@@ -26769,8 +26769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{869B9698-804B-4B0E-9F8E-B5BB96C44A92}">
   <dimension ref="A1:M401"/>
   <sheetViews>
-    <sheetView topLeftCell="A280" workbookViewId="0">
-      <selection activeCell="G291" sqref="G291"/>
+    <sheetView topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="C210" sqref="C210:F210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -35345,18 +35345,15 @@
         <v>1585</v>
       </c>
       <c r="C210" t="s">
-        <v>12</v>
+        <v>1586</v>
       </c>
       <c r="D210" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="E210" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="F210" t="s">
-        <v>1588</v>
-      </c>
-      <c r="G210" t="s">
         <v>1589</v>
       </c>
       <c r="H210">
